--- a/data/financial_statements/sofp/VRTX.xlsx
+++ b/data/financial_statements/sofp/VRTX.xlsx
@@ -14,9 +14,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -134,9 +251,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -189,12 +303,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -499,144 +610,144 @@
   <sheetData>
     <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B2">
-        <v>9776000000</v>
+        <v>9770700000</v>
       </c>
       <c r="C2">
-        <v>9259000000</v>
+        <v>9253400000</v>
       </c>
       <c r="D2">
-        <v>8243000000</v>
+        <v>8238100000</v>
       </c>
       <c r="E2">
-        <v>7530000000</v>
+        <v>7524900000</v>
       </c>
       <c r="F2">
-        <v>6965000000</v>
+        <v>6960885000</v>
       </c>
       <c r="G2">
         <v>6707993000</v>
@@ -742,23 +853,23 @@
       </c>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B3">
-        <v>1385000000</v>
+        <v>1385200000</v>
       </c>
       <c r="C3">
-        <v>1333000000</v>
+        <v>1332900000</v>
       </c>
       <c r="D3">
-        <v>1293000000</v>
+        <v>1292800000</v>
       </c>
       <c r="E3">
-        <v>1137000000</v>
+        <v>1136800000</v>
       </c>
       <c r="F3">
-        <v>1100000000</v>
+        <v>1100372000</v>
       </c>
       <c r="G3">
         <v>929142000</v>
@@ -864,23 +975,23 @@
       </c>
     </row>
     <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B4">
-        <v>388000000</v>
+        <v>388200000</v>
       </c>
       <c r="C4">
-        <v>368000000</v>
+        <v>367700000</v>
       </c>
       <c r="D4">
-        <v>339000000</v>
+        <v>338900000</v>
       </c>
       <c r="E4">
-        <v>353000000</v>
+        <v>353100000</v>
       </c>
       <c r="F4">
-        <v>333000000</v>
+        <v>333456000</v>
       </c>
       <c r="G4">
         <v>321620000</v>
@@ -986,8 +1097,8 @@
       </c>
     </row>
     <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B5">
         <v>721000000</v>
@@ -1027,23 +1138,23 @@
       </c>
     </row>
     <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B6">
         <v>12271000000</v>
       </c>
       <c r="C6">
-        <v>11504000000</v>
+        <v>11503500000</v>
       </c>
       <c r="D6">
-        <v>10361000000</v>
+        <v>10361300000</v>
       </c>
       <c r="E6">
-        <v>9561000000</v>
+        <v>9560600000</v>
       </c>
       <c r="F6">
-        <v>8853000000</v>
+        <v>8852540000</v>
       </c>
       <c r="G6">
         <v>8457514000</v>
@@ -1149,23 +1260,23 @@
       </c>
     </row>
     <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B7">
-        <v>1461000000</v>
+        <v>1118700000</v>
       </c>
       <c r="C7">
-        <v>1418000000</v>
+        <v>1100100000</v>
       </c>
       <c r="D7">
-        <v>1436000000</v>
+        <v>1107400000</v>
       </c>
       <c r="E7">
-        <v>1424000000</v>
+        <v>1094100000</v>
       </c>
       <c r="F7">
-        <v>1355000000</v>
+        <v>1042347000</v>
       </c>
       <c r="G7">
         <v>1021233000</v>
@@ -1271,8 +1382,8 @@
       </c>
     </row>
     <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B8">
         <v>108000000</v>
@@ -1312,31 +1423,31 @@
       </c>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="AC9">
         <v>30000000</v>
       </c>
     </row>
     <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B10">
-        <v>1679000000</v>
+        <v>1678800000</v>
       </c>
       <c r="C10">
-        <v>1389000000</v>
+        <v>1389200000</v>
       </c>
       <c r="D10">
-        <v>1402000000</v>
+        <v>1402200000</v>
       </c>
       <c r="E10">
-        <v>1402000000</v>
+        <v>1402200000</v>
       </c>
       <c r="F10">
-        <v>1402000000</v>
+        <v>1402158000</v>
       </c>
       <c r="G10">
         <v>1402158000</v>
@@ -1442,8 +1553,8 @@
       </c>
     </row>
     <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B11">
         <v>1162700000</v>
@@ -1498,23 +1609,23 @@
       </c>
     </row>
     <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B12">
-        <v>25000000</v>
+        <v>132500000</v>
       </c>
       <c r="C12">
-        <v>25000000</v>
+        <v>127300000</v>
       </c>
       <c r="D12">
-        <v>24000000</v>
+        <v>110700000</v>
       </c>
       <c r="E12">
-        <v>25000000</v>
+        <v>110800000</v>
       </c>
       <c r="F12">
-        <v>40000000</v>
+        <v>75518000</v>
       </c>
       <c r="G12">
         <v>71099000</v>
@@ -1620,8 +1731,8 @@
       </c>
     </row>
     <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B13">
         <v>4435400000</v>
@@ -1742,23 +1853,23 @@
       </c>
     </row>
     <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B14">
-        <v>16706000000</v>
+        <v>16706400000</v>
       </c>
       <c r="C14">
-        <v>15582000000</v>
+        <v>15582200000</v>
       </c>
       <c r="D14">
-        <v>14256000000</v>
+        <v>14256100000</v>
       </c>
       <c r="E14">
-        <v>13433000000</v>
+        <v>13432500000</v>
       </c>
       <c r="F14">
-        <v>12619000000</v>
+        <v>12618750000</v>
       </c>
       <c r="G14">
         <v>12221690000</v>
@@ -1864,23 +1975,23 @@
       </c>
     </row>
     <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B15">
-        <v>127000000</v>
+        <v>126900000</v>
       </c>
       <c r="C15">
         <v>198000000</v>
       </c>
       <c r="D15">
-        <v>174000000</v>
+        <v>173600000</v>
       </c>
       <c r="E15">
         <v>195000000</v>
       </c>
       <c r="F15">
-        <v>128000000</v>
+        <v>127863000</v>
       </c>
       <c r="G15">
         <v>127534000</v>
@@ -1986,8 +2097,8 @@
       </c>
     </row>
     <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B16">
         <v>2264400000</v>
@@ -2108,8 +2219,8 @@
       </c>
     </row>
     <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="E17">
         <v>80000000</v>
@@ -2146,8 +2257,8 @@
       </c>
     </row>
     <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="R18">
         <v>11511000</v>
@@ -2220,8 +2331,8 @@
       </c>
     </row>
     <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="V19">
         <v>13003000</v>
@@ -2282,23 +2393,23 @@
       </c>
     </row>
     <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B20">
-        <v>2482000000</v>
+        <v>218000000</v>
       </c>
       <c r="C20">
-        <v>2358000000</v>
+        <v>238700000</v>
       </c>
       <c r="D20">
-        <v>2007000000</v>
+        <v>286100000</v>
       </c>
       <c r="E20">
-        <v>1867000000</v>
+        <v>268400000</v>
       </c>
       <c r="F20">
-        <v>1786000000</v>
+        <v>201409000</v>
       </c>
       <c r="G20">
         <v>226358000</v>
@@ -2404,23 +2515,23 @@
       </c>
     </row>
     <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B21">
-        <v>2609000000</v>
+        <v>2609300000</v>
       </c>
       <c r="C21">
-        <v>2556000000</v>
+        <v>2556200000</v>
       </c>
       <c r="D21">
-        <v>2180000000</v>
+        <v>2180200000</v>
       </c>
       <c r="E21">
         <v>2142000000</v>
       </c>
       <c r="F21">
-        <v>1914000000</v>
+        <v>1914264000</v>
       </c>
       <c r="G21">
         <v>1836448000</v>
@@ -2526,23 +2637,23 @@
       </c>
     </row>
     <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B22">
-        <v>825000000</v>
+        <v>442300000</v>
       </c>
       <c r="C22">
-        <v>847000000</v>
+        <v>482300000</v>
       </c>
       <c r="D22">
-        <v>873000000</v>
+        <v>495500000</v>
       </c>
       <c r="E22">
-        <v>887000000</v>
+        <v>509800000</v>
       </c>
       <c r="F22">
-        <v>877000000</v>
+        <v>513255000</v>
       </c>
       <c r="G22">
         <v>524925000</v>
@@ -2648,8 +2759,8 @@
       </c>
     </row>
     <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="V23">
         <v>2917000</v>
@@ -2710,8 +2821,8 @@
       </c>
     </row>
     <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B24">
         <v>-1163000000</v>
@@ -2808,8 +2919,8 @@
       </c>
     </row>
     <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="AL25">
         <v>39624000</v>
@@ -2822,23 +2933,23 @@
       </c>
     </row>
     <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B26">
-        <v>243000000</v>
+        <v>242900000</v>
       </c>
       <c r="C26">
-        <v>245000000</v>
+        <v>245200000</v>
       </c>
       <c r="D26">
-        <v>296000000</v>
+        <v>296400000</v>
       </c>
       <c r="E26">
-        <v>303000000</v>
+        <v>303300000</v>
       </c>
       <c r="F26">
-        <v>297000000</v>
+        <v>296973000</v>
       </c>
       <c r="G26">
         <v>294993000</v>
@@ -2944,8 +3055,8 @@
       </c>
     </row>
     <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B27">
         <v>1067500000</v>
@@ -3066,23 +3177,23 @@
       </c>
     </row>
     <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B28">
-        <v>3677000000</v>
+        <v>3676800000</v>
       </c>
       <c r="C28">
-        <v>3649000000</v>
+        <v>3648700000</v>
       </c>
       <c r="D28">
-        <v>3349000000</v>
+        <v>3349100000</v>
       </c>
       <c r="E28">
-        <v>3333000000</v>
+        <v>3332500000</v>
       </c>
       <c r="F28">
-        <v>3088000000</v>
+        <v>3088037000</v>
       </c>
       <c r="G28">
         <v>3025290000</v>
@@ -3188,8 +3299,8 @@
       </c>
     </row>
     <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B29">
         <v>7225500000</v>
@@ -3310,23 +3421,23 @@
       </c>
     </row>
     <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B30">
-        <v>3000000</v>
+        <v>2600000</v>
       </c>
       <c r="C30">
-        <v>3000000</v>
+        <v>2600000</v>
       </c>
       <c r="D30">
-        <v>3000000</v>
+        <v>2600000</v>
       </c>
       <c r="E30">
-        <v>3000000</v>
+        <v>2500000</v>
       </c>
       <c r="F30">
-        <v>3000000</v>
+        <v>2562000</v>
       </c>
       <c r="G30">
         <v>2591000</v>
@@ -3432,23 +3543,23 @@
       </c>
     </row>
     <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B31">
-        <v>5704000000</v>
+        <v>5703900000</v>
       </c>
       <c r="C31">
-        <v>4773000000</v>
+        <v>4773400000</v>
       </c>
       <c r="D31">
-        <v>3963000000</v>
+        <v>3962900000</v>
       </c>
       <c r="E31">
-        <v>3201000000</v>
+        <v>3200800000</v>
       </c>
       <c r="F31">
-        <v>2431000000</v>
+        <v>2430659000</v>
       </c>
       <c r="G31">
         <v>1578731000</v>
@@ -3554,14 +3665,14 @@
       </c>
     </row>
     <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B32">
-        <v>13030000000</v>
+        <v>13029600000</v>
       </c>
       <c r="C32">
-        <v>11934000000</v>
+        <v>11933500000</v>
       </c>
       <c r="D32">
         <v>10907000000</v>
@@ -3570,7 +3681,7 @@
         <v>10100000000</v>
       </c>
       <c r="F32">
-        <v>9531000000</v>
+        <v>9530708000</v>
       </c>
       <c r="G32">
         <v>9196396000</v>
@@ -3676,14 +3787,14 @@
       </c>
     </row>
     <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B33">
-        <v>13030000000</v>
+        <v>13029600000</v>
       </c>
       <c r="C33">
-        <v>11934000000</v>
+        <v>11933500000</v>
       </c>
       <c r="D33">
         <v>10907000000</v>
@@ -3692,7 +3803,7 @@
         <v>10100000000</v>
       </c>
       <c r="F33">
-        <v>9531000000</v>
+        <v>9530708000</v>
       </c>
       <c r="G33">
         <v>9196396000</v>
@@ -3798,8 +3909,8 @@
       </c>
     </row>
     <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B34">
         <v>16706400000</v>
@@ -3920,8 +4031,8 @@
       </c>
     </row>
     <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
+      <c r="A35" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B35">
         <v>256646000</v>
@@ -4042,8 +4153,8 @@
       </c>
     </row>
     <row r="36" spans="1:40">
-      <c r="A36" t="s">
-        <v>35</v>
+      <c r="A36" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B36">
         <v>11350800000</v>
@@ -4164,23 +4275,23 @@
       </c>
     </row>
     <row r="37" spans="1:40">
-      <c r="A37" t="s">
-        <v>36</v>
+      <c r="A37" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="B37">
-        <v>-8951000000</v>
+        <v>-9328400000</v>
       </c>
       <c r="C37">
-        <v>-8412000000</v>
+        <v>-8771100000</v>
       </c>
       <c r="D37">
-        <v>-7370000000</v>
+        <v>-7742600000</v>
       </c>
       <c r="E37">
-        <v>-6563000000</v>
+        <v>-6935100000</v>
       </c>
       <c r="F37">
-        <v>-6088000000</v>
+        <v>-6447630000</v>
       </c>
       <c r="G37">
         <v>-6183068000</v>
@@ -4286,23 +4397,23 @@
       </c>
     </row>
     <row r="38" spans="1:40">
-      <c r="A38" t="s">
-        <v>37</v>
+      <c r="A38" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="B38">
-        <v>825000000</v>
+        <v>442300000</v>
       </c>
       <c r="C38">
-        <v>847000000</v>
+        <v>482300000</v>
       </c>
       <c r="D38">
-        <v>873000000</v>
+        <v>495500000</v>
       </c>
       <c r="E38">
-        <v>967000000</v>
+        <v>589800000</v>
       </c>
       <c r="F38">
-        <v>877000000</v>
+        <v>513255000</v>
       </c>
       <c r="G38">
         <v>524925000</v>
